--- a/src/data/data_level_grade_03.xlsx
+++ b/src/data/data_level_grade_03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Proyect_Phyton\rendimientos_1s_2024\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E62CF4-6B20-4624-A06D-4F1A5304502C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB23AF-7C3C-4ECF-B032-896053A8CB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F503" sqref="F503:J503"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164:J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5466,13 +5466,13 @@
         <v>0</v>
       </c>
       <c r="G164" s="3">
-        <v>6.25E-2</v>
+        <v>0.24242424242424243</v>
       </c>
       <c r="H164" s="3">
-        <v>0.25</v>
+        <v>0.42424242424242425</v>
       </c>
       <c r="I164" s="3">
-        <v>0.6875</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J164" s="3">
         <v>0</v>
